--- a/Mathematica/datafiles/ecoli_.xlsx
+++ b/Mathematica/datafiles/ecoli_.xlsx
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="198">
   <si>
     <t>Reaction</t>
   </si>
   <si>
-    <t>Positive Effectors</t>
-  </si>
-  <si>
-    <t>Negative Effectors</t>
-  </si>
-  <si>
     <t>glc[e] + pep[c] --&gt; g6p[c] + pyr[c]</t>
   </si>
   <si>
@@ -320,9 +314,6 @@
     <t>accoa[c], for[c]</t>
   </si>
   <si>
-    <t>accoa[c], pi[c]</t>
-  </si>
-  <si>
     <t>ac[c], atp[c]</t>
   </si>
   <si>
@@ -338,9 +329,6 @@
     <t>3pg[c]</t>
   </si>
   <si>
-    <t>pep[c], adp[c]</t>
-  </si>
-  <si>
     <t>atp[c], pyr[c]</t>
   </si>
   <si>
@@ -368,15 +356,9 @@
     <t>atp[c], succ[c], coa[c]</t>
   </si>
   <si>
-    <t>succ[c]</t>
-  </si>
-  <si>
     <t>for[c]</t>
   </si>
   <si>
-    <t>6pgc[c]</t>
-  </si>
-  <si>
     <t>ru5p-D[c]</t>
   </si>
   <si>
@@ -395,21 +377,6 @@
     <t>atp[c], oaa[c]</t>
   </si>
   <si>
-    <t>r5p[c], ru5p[c]</t>
-  </si>
-  <si>
-    <t>nad[c], h[e]</t>
-  </si>
-  <si>
-    <t>[c] : acald,]</t>
-  </si>
-  <si>
-    <t>2 h[c],] + nad]</t>
-  </si>
-  <si>
-    <t>o2[c], h[c]</t>
-  </si>
-  <si>
     <t>oaa[c], pi[c]</t>
   </si>
   <si>
@@ -492,6 +459,165 @@
   </si>
   <si>
     <t>pi[e]</t>
+  </si>
+  <si>
+    <t>Positive Effectors FWD</t>
+  </si>
+  <si>
+    <t>Negative Effectors FWD</t>
+  </si>
+  <si>
+    <t>Positive Effectors REV</t>
+  </si>
+  <si>
+    <t>Negative Effectors REV</t>
+  </si>
+  <si>
+    <t>f6p[c]</t>
+  </si>
+  <si>
+    <t>dhap[c], g3p[c]</t>
+  </si>
+  <si>
+    <t>dhap[c]</t>
+  </si>
+  <si>
+    <t>13dpg[c], nadh[c]</t>
+  </si>
+  <si>
+    <t>3pg[c], atp[c]</t>
+  </si>
+  <si>
+    <t>pep[c]</t>
+  </si>
+  <si>
+    <t>adp[c], pep[c]</t>
+  </si>
+  <si>
+    <t>cit[c], coa[c]</t>
+  </si>
+  <si>
+    <t>akg[c], nadph[c]</t>
+  </si>
+  <si>
+    <t>coa[c], mal[c]</t>
+  </si>
+  <si>
+    <t>adp[c], succoa[c]</t>
+  </si>
+  <si>
+    <t>fum[c]</t>
+  </si>
+  <si>
+    <t>succ[c], q8[c]</t>
+  </si>
+  <si>
+    <t>fum[c], q8h2[c]</t>
+  </si>
+  <si>
+    <t>nadh[c], oaa[c]</t>
+  </si>
+  <si>
+    <t>coa[c], pyr[c]</t>
+  </si>
+  <si>
+    <t>nadh[c], pyr[c]</t>
+  </si>
+  <si>
+    <t>accoa[c]</t>
+  </si>
+  <si>
+    <t>actp[c], coa[c]</t>
+  </si>
+  <si>
+    <t>actp[c], adp[c]</t>
+  </si>
+  <si>
+    <t>acald[c], coa[c], nad[c]</t>
+  </si>
+  <si>
+    <t>accoa[c], nadh[c]</t>
+  </si>
+  <si>
+    <t>acald[c], nadh[c]</t>
+  </si>
+  <si>
+    <t>g6p[c], nadp[c]</t>
+  </si>
+  <si>
+    <t>6pgc[c], nadp[c]</t>
+  </si>
+  <si>
+    <t>xu5p-D[c]</t>
+  </si>
+  <si>
+    <t>r5p[c]</t>
+  </si>
+  <si>
+    <t>r5p[c], xu5p-D[c]</t>
+  </si>
+  <si>
+    <t>e4p[c], f6p[c]</t>
+  </si>
+  <si>
+    <t>e4p[c], xu5p-D[c]</t>
+  </si>
+  <si>
+    <t>nadh[c], nadp[c]</t>
+  </si>
+  <si>
+    <t>h[c], nad[c], nadph[c]</t>
+  </si>
+  <si>
+    <t>h[e], nadh[c], nadp[c]</t>
+  </si>
+  <si>
+    <t>adp[c]</t>
+  </si>
+  <si>
+    <t>adp[c], h[e], pi[c]</t>
+  </si>
+  <si>
+    <t>nad[c], h[e], q8h2[c]</t>
+  </si>
+  <si>
+    <t>h[c], nadh[c], q8[c]</t>
+  </si>
+  <si>
+    <t>o2[c], h[c], q8h2[c]</t>
+  </si>
+  <si>
+    <t>h[e], q8[c]</t>
+  </si>
+  <si>
+    <t>pep[c], co2[c]</t>
+  </si>
+  <si>
+    <t>h2o[c]</t>
+  </si>
+  <si>
+    <t>o2[c]</t>
+  </si>
+  <si>
+    <t>pi[c], h[c]</t>
+  </si>
+  <si>
+    <t>co2[c]</t>
+  </si>
+  <si>
+    <t>pyr[c], h[c]</t>
+  </si>
+  <si>
+    <t>akg[c], h[c]</t>
+  </si>
+  <si>
+    <t>lac[c], h[c]</t>
+  </si>
+  <si>
+    <t>etoh[c], h[c]</t>
+  </si>
+  <si>
+    <t>ac[c], h[c]</t>
   </si>
 </sst>
 </file>
@@ -854,676 +980,813 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
